--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_4.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,221 +518,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_9</t>
+          <t>model_22_4_16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9842478744331902</v>
+        <v>0.9442773453146686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8400876851993986</v>
+        <v>0.766496894361391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8535621998489837</v>
+        <v>0.6693452409556029</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9058353390589529</v>
+        <v>0.5522457392523521</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8992722373412749</v>
+        <v>0.6298382552522666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1053345361971263</v>
+        <v>0.3726176484600437</v>
       </c>
       <c r="H2" t="n">
-        <v>1.069334385400125</v>
+        <v>1.561436342588316</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0885883969629141</v>
+        <v>1.033344758389263</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2988327901066604</v>
+        <v>1.282874792500263</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1937105496166491</v>
+        <v>1.158109856394191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7835845934370985</v>
+        <v>2.534245715402384</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3245528249717237</v>
+        <v>0.6104241545516066</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006632473922867</v>
+        <v>1.023462170393824</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3383697106477365</v>
+        <v>0.6364111745630675</v>
       </c>
       <c r="P2" t="n">
-        <v>166.5012278690711</v>
+        <v>163.9744049124715</v>
       </c>
       <c r="Q2" t="n">
-        <v>265.2301696833954</v>
+        <v>262.7033467267958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_10</t>
+          <t>model_22_4_15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9849329415459787</v>
+        <v>0.9442702394616707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8400834832288796</v>
+        <v>0.7663678915247762</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8542012636083512</v>
+        <v>0.6742309481517919</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8985717109385828</v>
+        <v>0.5478482364969306</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8933795156562161</v>
+        <v>0.6302648425442116</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1007534892594656</v>
+        <v>0.3726651653317601</v>
       </c>
       <c r="H3" t="n">
-        <v>1.069362483996335</v>
+        <v>1.562298985150763</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08820179163327195</v>
+        <v>1.018076204757078</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3218840094899738</v>
+        <v>1.295474215731794</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2050429005616228</v>
+        <v>1.156775210244436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7590774191556254</v>
+        <v>2.519823623195566</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3174169013450065</v>
+        <v>0.6104630745030859</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00634402461222</v>
+        <v>1.023465162331928</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3309299959788317</v>
+        <v>0.6364517514174566</v>
       </c>
       <c r="P3" t="n">
-        <v>166.5901568918135</v>
+        <v>163.9741498851402</v>
       </c>
       <c r="Q3" t="n">
-        <v>265.3190987061378</v>
+        <v>262.7030916994644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_11</t>
+          <t>model_22_4_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9854214980289809</v>
+        <v>0.9442330529849989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8399288481573451</v>
+        <v>0.7661924918480971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.854536882851531</v>
+        <v>0.679593640769933</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8918426987575347</v>
+        <v>0.5427347465807291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8878801773220105</v>
+        <v>0.6306017892583934</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09748650980803401</v>
+        <v>0.3729138314724916</v>
       </c>
       <c r="H4" t="n">
-        <v>1.070396529431715</v>
+        <v>1.563471883596358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08799875682455086</v>
+        <v>1.001317001520978</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3432386181576903</v>
+        <v>1.310125036260549</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2156187321211515</v>
+        <v>1.155721018890763</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7373056918523531</v>
+        <v>2.504109262902015</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3122282975773241</v>
+        <v>0.6106667106306776</v>
       </c>
       <c r="N4" t="n">
-        <v>1.006138316619376</v>
+        <v>1.02348081979579</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3255205026068685</v>
+        <v>0.6366640567565848</v>
       </c>
       <c r="P4" t="n">
-        <v>166.6560825429887</v>
+        <v>163.9728158016908</v>
       </c>
       <c r="Q4" t="n">
-        <v>265.3850243573129</v>
+        <v>262.7017576160151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_8</t>
+          <t>model_22_4_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9833139930577944</v>
+        <v>0.9441562751228799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.839886217096646</v>
+        <v>0.7659584914189707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8526254693981228</v>
+        <v>0.6854723352280296</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9136654639104799</v>
+        <v>0.536780965428538</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9055855242686327</v>
+        <v>0.6308117439866929</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1115794052545257</v>
+        <v>0.3734272453900113</v>
       </c>
       <c r="H5" t="n">
-        <v>1.070681603530907</v>
+        <v>1.565036645543399</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08915507748490052</v>
+        <v>0.9829452166357325</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2739837858955133</v>
+        <v>1.327183401595711</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1815694055238377</v>
+        <v>1.155064142150553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8111153062210552</v>
+        <v>2.487020003049278</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3340350359685727</v>
+        <v>0.6110869376692741</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00702568713356</v>
+        <v>1.023513147316682</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3482555989976042</v>
+        <v>0.6371021737302043</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3860375735894</v>
+        <v>163.9700641696855</v>
       </c>
       <c r="Q5" t="n">
-        <v>265.1149793879136</v>
+        <v>262.6990059840097</v>
       </c>
     </row>
     <row r="6">
@@ -742,1152 +742,712 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9857558150904312</v>
+        <v>0.9440280743234818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8396672625272248</v>
+        <v>0.7656509361344405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8545966676823797</v>
+        <v>0.6919070947737717</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8856166592458699</v>
+        <v>0.5298409687940024</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8827525598790128</v>
+        <v>0.6308477392593452</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09525093007872712</v>
+        <v>0.3742845247258973</v>
       </c>
       <c r="H6" t="n">
-        <v>1.07214575374482</v>
+        <v>1.567093269147214</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08796258964420449</v>
+        <v>0.9628356465593648</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3629970364431866</v>
+        <v>1.347067403877714</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2254797035841266</v>
+        <v>1.154951525218539</v>
       </c>
       <c r="L6" t="n">
-        <v>0.717984881267558</v>
+        <v>2.468478107877143</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3086274940421335</v>
+        <v>0.6117879736688989</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005997551540871</v>
+        <v>1.023567126600639</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3217664054104939</v>
+        <v>0.6378330542836778</v>
       </c>
       <c r="P6" t="n">
-        <v>166.7024810008339</v>
+        <v>163.9654780190012</v>
       </c>
       <c r="Q6" t="n">
-        <v>265.4314228151581</v>
+        <v>262.6944198333255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_7</t>
+          <t>model_22_4_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9820667248114742</v>
+        <v>0.943833898857975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8394093323669265</v>
+        <v>0.7652513958968439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8514559898378478</v>
+        <v>0.6989398312046002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9220974187640714</v>
+        <v>0.5217439953875783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9123587298764647</v>
+        <v>0.6306527413024697</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1199198937608115</v>
+        <v>0.3755829769578371</v>
       </c>
       <c r="H7" t="n">
-        <v>1.073870533914395</v>
+        <v>1.569764996555736</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08986256093124305</v>
+        <v>0.9408573107600177</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2472248662565455</v>
+        <v>1.370266296639341</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1685437872997437</v>
+        <v>1.155561607321941</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8419141710506629</v>
+        <v>2.448414623716782</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3462945188142769</v>
+        <v>0.6128482495347743</v>
       </c>
       <c r="N7" t="n">
-        <v>1.007550852710958</v>
+        <v>1.023648884691379</v>
       </c>
       <c r="O7" t="n">
-        <v>0.361036993408678</v>
+        <v>0.6389384682882371</v>
       </c>
       <c r="P7" t="n">
-        <v>166.2418626222107</v>
+        <v>163.9585517098772</v>
       </c>
       <c r="Q7" t="n">
-        <v>264.970804436535</v>
+        <v>262.6874935242014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_13</t>
+          <t>model_22_4_10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9859702269459165</v>
+        <v>0.9435559994860905</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8393323460738409</v>
+        <v>0.7647374833576364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8544218347348168</v>
+        <v>0.7066122761287883</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8798664614489695</v>
+        <v>0.5122931337715506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8779805711986401</v>
+        <v>0.6301571880556585</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09381715701382137</v>
+        <v>0.3774412913372373</v>
       </c>
       <c r="H8" t="n">
-        <v>1.074385341610747</v>
+        <v>1.573201532071766</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08806835585036793</v>
+        <v>0.91687979182349</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3812453647878157</v>
+        <v>1.397344257024052</v>
       </c>
       <c r="K8" t="n">
-        <v>0.234656761881066</v>
+        <v>1.157112024423771</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7008305516840068</v>
+        <v>2.426770988883163</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3062958651595241</v>
+        <v>0.6143625080823514</v>
       </c>
       <c r="N8" t="n">
-        <v>1.005907272864877</v>
+        <v>1.023765894953225</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3193355142592147</v>
+        <v>0.6405171919571317</v>
       </c>
       <c r="P8" t="n">
-        <v>166.7328150582019</v>
+        <v>163.9486804840479</v>
       </c>
       <c r="Q8" t="n">
-        <v>265.4617568725261</v>
+        <v>262.6776222983721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_14</t>
+          <t>model_22_4_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9860922853775637</v>
+        <v>0.9431726898972785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8389499733411075</v>
+        <v>0.7640821099021725</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8540576162807868</v>
+        <v>0.7149675763009786</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8745647217002657</v>
+        <v>0.5012578139748238</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8735487453446251</v>
+        <v>0.629277222079146</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09300095171936952</v>
+        <v>0.3800044843226012</v>
       </c>
       <c r="H9" t="n">
-        <v>1.076942269835199</v>
+        <v>1.577584017386171</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08828869191765083</v>
+        <v>0.8907682497950188</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3980705056176268</v>
+        <v>1.428961898296211</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2431796497058971</v>
+        <v>1.159865137853645</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6855912610275494</v>
+        <v>2.403500422282124</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3049605740409234</v>
+        <v>0.6164450375520929</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005855879841026</v>
+        <v>1.023927288464304</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3179433770332615</v>
+        <v>0.6426883790178305</v>
       </c>
       <c r="P9" t="n">
-        <v>166.7502911046793</v>
+        <v>163.9351444509648</v>
       </c>
       <c r="Q9" t="n">
-        <v>265.4792329190035</v>
+        <v>262.664086265289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_6</t>
+          <t>model_22_4_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9804259145879697</v>
+        <v>0.9426579062914421</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8385715022065007</v>
+        <v>0.7632523373864323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8502237230189952</v>
+        <v>0.7240464260791639</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9311596487119337</v>
+        <v>0.4883776996493228</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9196421897402872</v>
+        <v>0.627913969166753</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1308919992806227</v>
+        <v>0.3834468446651902</v>
       </c>
       <c r="H10" t="n">
-        <v>1.079473108055015</v>
+        <v>1.583132710019677</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09060802789400924</v>
+        <v>0.862395508820099</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2184657603154825</v>
+        <v>1.465865118301569</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1545368941047459</v>
+        <v>1.164130291281848</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8761287479649799</v>
+        <v>2.37855984790687</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3617899933395376</v>
+        <v>0.6192308492518684</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008241720173486</v>
+        <v>1.024144039456235</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3771921423645333</v>
+        <v>0.6455927884890907</v>
       </c>
       <c r="P10" t="n">
-        <v>166.0667654575702</v>
+        <v>163.9171085472178</v>
       </c>
       <c r="Q10" t="n">
-        <v>264.7957072718944</v>
+        <v>262.6460503615421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_15</t>
+          <t>model_22_4_7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9861440902991047</v>
+        <v>0.9419804802064308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8385398141486479</v>
+        <v>0.762208639112647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8535482026732593</v>
+        <v>0.7338907357950959</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8696854009583102</v>
+        <v>0.4733552806936032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8694427672433067</v>
+        <v>0.6259521113671267</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09265453197048484</v>
+        <v>0.3879767960149214</v>
       </c>
       <c r="H11" t="n">
-        <v>1.079685006243786</v>
+        <v>1.590111925182267</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08859686463559262</v>
+        <v>0.8316305929473683</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4135550941731652</v>
+        <v>1.508906322573955</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2510758965173658</v>
+        <v>1.170268275249207</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6720408791204052</v>
+        <v>2.351937658262709</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3043920694934164</v>
+        <v>0.6228778339409112</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005834067242482</v>
+        <v>1.024429271492029</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3173506700702005</v>
+        <v>0.6493950328666451</v>
       </c>
       <c r="P11" t="n">
-        <v>166.7577548249862</v>
+        <v>163.8936194904649</v>
       </c>
       <c r="Q11" t="n">
-        <v>265.4866966393104</v>
+        <v>262.6225613047891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_16</t>
+          <t>model_22_4_6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9861432085127702</v>
+        <v>0.9411029944989162</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8381168258265704</v>
+        <v>0.7609035868837977</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8529337253559477</v>
+        <v>0.7445386622131021</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8652027887187982</v>
+        <v>0.4558538742809778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8656474510131917</v>
+        <v>0.6232564104152967</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0926604284797638</v>
+        <v>0.393844546981521</v>
       </c>
       <c r="H12" t="n">
-        <v>1.082513531101201</v>
+        <v>1.598838815445796</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08896859625444078</v>
+        <v>0.7983542566757839</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4277807230780287</v>
+        <v>1.559050151652364</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2583747064333117</v>
+        <v>1.178702204164074</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6599830766025476</v>
+        <v>2.323631752876553</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3044017550536853</v>
+        <v>0.6275703522168021</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005834438520939</v>
+        <v>1.024798739158351</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3173607679648219</v>
+        <v>0.6542873213603926</v>
       </c>
       <c r="P12" t="n">
-        <v>166.7576275495786</v>
+        <v>163.8635979966963</v>
       </c>
       <c r="Q12" t="n">
-        <v>265.4865693639028</v>
+        <v>262.5925398110206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_17</t>
+          <t>model_22_4_5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9861035829251564</v>
+        <v>0.9399810049764785</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8376920613095303</v>
+        <v>0.7592804362751667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8522484324672562</v>
+        <v>0.7560235256689349</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8610912810115586</v>
+        <v>0.4354987413587901</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8621472771987181</v>
+        <v>0.6196721094156317</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09292540496659579</v>
+        <v>0.4013472960843489</v>
       </c>
       <c r="H13" t="n">
-        <v>1.085353933382509</v>
+        <v>1.609692831039633</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08938316816412982</v>
+        <v>0.7624623690549922</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4408286468683414</v>
+        <v>1.617370282163828</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2651059250711434</v>
+        <v>1.189916259573351</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6492427313277362</v>
+        <v>2.293674234060418</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3048366857295818</v>
+        <v>0.6335197677139592</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005851122978882</v>
+        <v>1.025271155799377</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3178142145400219</v>
+        <v>0.6604900157922516</v>
       </c>
       <c r="P13" t="n">
-        <v>166.7519164096286</v>
+        <v>163.8258563029576</v>
       </c>
       <c r="Q13" t="n">
-        <v>265.4808582239528</v>
+        <v>262.5547981172819</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_18</t>
+          <t>model_22_4_4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9860362056972809</v>
+        <v>0.9385617515378287</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8372737251815714</v>
+        <v>0.7572713842028259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8515197450594241</v>
+        <v>0.7683723713506984</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8573261250037787</v>
+        <v>0.4118740320832619</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8589260217769745</v>
+        <v>0.6150221827621239</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09337595679964343</v>
+        <v>0.4108378503636611</v>
       </c>
       <c r="H14" t="n">
-        <v>1.088151348996431</v>
+        <v>1.623127371498209</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08982399183998631</v>
+        <v>0.7238704098940636</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4527774189846258</v>
+        <v>1.685058178553949</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2713007530086574</v>
+        <v>1.204464294224006</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6396616803411065</v>
+        <v>2.262134597081151</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3055747973895155</v>
+        <v>0.6409663410536166</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005879492337987</v>
+        <v>1.025868736194598</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3185837491414208</v>
+        <v>0.66825360517551</v>
       </c>
       <c r="P14" t="n">
-        <v>166.7422427774628</v>
+        <v>163.7791133339877</v>
       </c>
       <c r="Q14" t="n">
-        <v>265.471184591787</v>
+        <v>262.5080551483119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_5</t>
+          <t>model_22_4_3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9782898617618789</v>
+        <v>0.9367827323182474</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8372701512629679</v>
+        <v>0.754795949501796</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8492404189050486</v>
+        <v>0.7816040475677037</v>
       </c>
       <c r="E15" t="n">
-        <v>0.94085253614818</v>
+        <v>0.3845211681387203</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9274851066644374</v>
+        <v>0.6091061312639019</v>
       </c>
       <c r="G15" t="n">
-        <v>0.14517579436431</v>
+        <v>0.4227341600766314</v>
       </c>
       <c r="H15" t="n">
-        <v>1.088175247806588</v>
+        <v>1.639680614742325</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09120288342374085</v>
+        <v>0.6825194754539802</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1877052545395769</v>
+        <v>1.763427727954884</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1394541035426023</v>
+        <v>1.222973601704432</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9137634846962307</v>
+        <v>2.229145537479909</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3810194146816013</v>
+        <v>0.6501800981855962</v>
       </c>
       <c r="N15" t="n">
-        <v>1.009141110837104</v>
+        <v>1.026617796918633</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3972401999835183</v>
+        <v>0.6778596110237046</v>
       </c>
       <c r="P15" t="n">
-        <v>165.8596197919366</v>
+        <v>163.7220235213549</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.5885616062608</v>
+        <v>262.4509653356791</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_19</t>
+          <t>model_22_4_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9859496771613701</v>
+        <v>0.9345703642271996</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8368676819607443</v>
+        <v>0.751758303317545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8507713317293938</v>
+        <v>0.7957223664534563</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8538831917320615</v>
+        <v>0.3529469875700266</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8559675549029474</v>
+        <v>0.601699983113871</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09395457351770617</v>
+        <v>0.4375282756884867</v>
       </c>
       <c r="H16" t="n">
-        <v>1.090866561883759</v>
+        <v>1.659993368763486</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09027674882694381</v>
+        <v>0.6383976522568081</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4637036130096053</v>
+        <v>1.853891904170189</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2769902097092109</v>
+        <v>1.24614491341389</v>
       </c>
       <c r="L16" t="n">
-        <v>0.631114050318473</v>
+        <v>2.194907088945544</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3065201029585273</v>
+        <v>0.6614592018321968</v>
       </c>
       <c r="N16" t="n">
-        <v>1.005915925405739</v>
+        <v>1.02754932032539</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3195692983255577</v>
+        <v>0.6896188894635042</v>
       </c>
       <c r="P16" t="n">
-        <v>166.7298877479401</v>
+        <v>163.6532278902556</v>
       </c>
       <c r="Q16" t="n">
-        <v>265.4588295622643</v>
+        <v>262.3821697045798</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_20</t>
+          <t>model_22_4_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9858507060295755</v>
+        <v>0.9318377966977466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.836478038681009</v>
+        <v>0.7480451196209852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8500216409847647</v>
+        <v>0.8107116506607983</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8507394007129206</v>
+        <v>0.3166242587685416</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8532557294527094</v>
+        <v>0.5925546617604133</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09461639393173668</v>
+        <v>0.4558009673402559</v>
       </c>
       <c r="H17" t="n">
-        <v>1.093472108289491</v>
+        <v>1.684823445240021</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09073027859327555</v>
+        <v>0.5915539343184126</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4736804751612174</v>
+        <v>1.957961295037494</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2822053478654094</v>
+        <v>1.274757504935333</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6234840759325606</v>
+        <v>2.159722155829183</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3075977794648991</v>
+        <v>0.6751303335951184</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005957597461231</v>
+        <v>1.028699875074633</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3206928537519037</v>
+        <v>0.7038720296087176</v>
       </c>
       <c r="P17" t="n">
-        <v>166.7158490411258</v>
+        <v>163.5713980797635</v>
       </c>
       <c r="Q17" t="n">
-        <v>265.44479085545</v>
+        <v>262.3003398940878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_21</t>
+          <t>model_22_4_0</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9857443880714978</v>
+        <v>0.9284831259820718</v>
       </c>
       <c r="C18" t="n">
-        <v>0.836107513297942</v>
+        <v>0.7435225374059069</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8492829975249276</v>
+        <v>0.8265305639522824</v>
       </c>
       <c r="E18" t="n">
-        <v>0.847871928345342</v>
+        <v>0.2750023180416837</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8507735867682467</v>
+        <v>0.581397163257701</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09532734260695168</v>
+        <v>0.4782336658628105</v>
       </c>
       <c r="H18" t="n">
-        <v>1.095949813232173</v>
+        <v>1.715065973336825</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09117712524056625</v>
+        <v>0.5421175034610102</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4827804364374945</v>
+        <v>2.07721362439393</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2869787808390304</v>
+        <v>1.309665512507808</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6166607224843641</v>
+        <v>2.124051680678458</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3087512633285112</v>
+        <v>0.6915444062840871</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006002362917264</v>
+        <v>1.030112368007549</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3218954438116305</v>
+        <v>0.7209848833538703</v>
       </c>
       <c r="P18" t="n">
-        <v>166.7008771971842</v>
+        <v>163.4753116504344</v>
       </c>
       <c r="Q18" t="n">
-        <v>265.4298190115085</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_22</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9856346690623693</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8357577760752419</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8485662982453819</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8452599283904885</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8485057007882275</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0960610341262032</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.098288507650759</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.09161069662865021</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4910696526515902</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2913401746401202</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.6105599436189216</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.3099371454443678</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.006048560394792</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.3231318113842735</v>
-      </c>
-      <c r="P19" t="n">
-        <v>166.6855430347677</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>265.4144848490919</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_23</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9855244605112032</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8354296613358462</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8478787166696748</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8428826489283145</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8464360623254664</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.09679799921531475</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.100482612423928</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.09202665309283022</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4986139802947326</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.2953203166937814</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.605101745157872</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.3111237683226962</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.006094963995283</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.3243689512551804</v>
-      </c>
-      <c r="P20" t="n">
-        <v>166.670257908353</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>265.3991997226772</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_4</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9755253663192484</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8353861234430862</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8489859437002912</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9511017722017374</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9359017239958194</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.163661988118512</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.100773750513288</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.0913568296755489</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.1551791691086122</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.1232680240929979</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.9546845710492652</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.4045515889457265</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.010305108918211</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.4217741876243836</v>
-      </c>
-      <c r="P21" t="n">
-        <v>165.6199040521965</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>264.3488458665207</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_24</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9854159583350446</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8351234685857813</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8472240719367273</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.8407217734942103</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.8445501399052863</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.09752355376689423</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.1025301247535</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.09242268422285424</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5054715469082907</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2989471526216795</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.6002177270746899</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.312287613854431</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.006140649122087</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.3255823441006935</v>
-      </c>
-      <c r="P22" t="n">
-        <v>166.6553227061141</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>265.3842645204383</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_3</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9719510335309863</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8327835574476317</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.8500318102403344</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9616819596572392</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9447959421311867</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.1875635679319096</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.118177121308607</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.09072412664310768</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.1216028050503531</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1061634658467304</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.9988107416853964</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.4330860975971286</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.011810091144848</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.4515234693836518</v>
-      </c>
-      <c r="P23" t="n">
-        <v>165.3472749241176</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>264.0762167384419</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9673149036458264</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8293075359925638</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8527898087507542</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9721540807005343</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9538702945139829</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2185653898213891</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.141421292784253</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.08905565943988401</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.08836939117270183</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.08871248966013343</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.046257747187615</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.4675097751078464</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.013762145833336</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.487412634112837</v>
-      </c>
-      <c r="P24" t="n">
-        <v>165.0413400846016</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>263.7702818989258</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9612745389128264</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8247741274358323</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8570977676484854</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9818715815053835</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9625657491097087</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2589573366042817</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.171736216677543</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.08644953470611605</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.05753077454777927</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.0719901755290078</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.097448035239831</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.5088785086877631</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.016305457299863</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5305425203263348</v>
-      </c>
-      <c r="P25" t="n">
-        <v>164.7021839087732</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>263.4311257230974</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_22_4_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9533879680151032</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8189453329337795</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8616554869693087</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9900879563165683</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9700619497372046</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3116948725116773</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.210713392351901</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.08369231595506781</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.03145600100905606</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.05757415848206193</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.152836751032383</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5582964020228657</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.019626118730483</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.5820642356898544</v>
-      </c>
-      <c r="P26" t="n">
-        <v>164.3314610848379</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>263.0604028991622</v>
+        <v>262.2042534647587</v>
       </c>
     </row>
   </sheetData>
